--- a/optimize/Axiory/covid/MA30/NIKKEI/M5/matrix_NIKKEI_M5_MA30_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA30/NIKKEI/M5/matrix_NIKKEI_M5_MA30_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4978</v>
+        <v>4988</v>
       </c>
       <c r="C2">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="D2">
-        <v>8362</v>
+        <v>8372</v>
       </c>
       <c r="E2">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="F2">
-        <v>8436</v>
+        <v>8446</v>
       </c>
       <c r="G2">
-        <v>3926</v>
+        <v>3936</v>
       </c>
       <c r="H2">
-        <v>-2590</v>
+        <v>-2580</v>
       </c>
       <c r="I2">
-        <v>-8322</v>
+        <v>-8312</v>
       </c>
       <c r="J2">
-        <v>-7740</v>
+        <v>-7730</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C3">
-        <v>-460</v>
+        <v>-450</v>
       </c>
       <c r="D3">
-        <v>10578</v>
+        <v>10588</v>
       </c>
       <c r="E3">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="F3">
-        <v>3360</v>
+        <v>3370</v>
       </c>
       <c r="G3">
-        <v>-1814</v>
+        <v>-1804</v>
       </c>
       <c r="H3">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="I3">
-        <v>-2944</v>
+        <v>-2934</v>
       </c>
       <c r="J3">
-        <v>-2642</v>
+        <v>-2632</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1846</v>
+        <v>1856</v>
       </c>
       <c r="C4">
-        <v>-964</v>
+        <v>-954</v>
       </c>
       <c r="D4">
-        <v>4236</v>
+        <v>4246</v>
       </c>
       <c r="E4">
-        <v>1462</v>
+        <v>1472</v>
       </c>
       <c r="F4">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="G4">
-        <v>-3542</v>
+        <v>-3532</v>
       </c>
       <c r="H4">
-        <v>2736</v>
+        <v>2746</v>
       </c>
       <c r="I4">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J4">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-262</v>
+        <v>-252</v>
       </c>
       <c r="C5">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D5">
-        <v>3762</v>
+        <v>3772</v>
       </c>
       <c r="E5">
-        <v>4070</v>
+        <v>4080</v>
       </c>
       <c r="F5">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="G5">
-        <v>-1802</v>
+        <v>-1792</v>
       </c>
       <c r="H5">
-        <v>7970</v>
+        <v>7980</v>
       </c>
       <c r="I5">
-        <v>3646</v>
+        <v>3656</v>
       </c>
       <c r="J5">
-        <v>4176</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>2034</v>
+        <v>2044</v>
       </c>
       <c r="C6">
-        <v>-862</v>
+        <v>-852</v>
       </c>
       <c r="D6">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E6">
-        <v>4914</v>
+        <v>4924</v>
       </c>
       <c r="F6">
-        <v>-2102</v>
+        <v>-2092</v>
       </c>
       <c r="G6">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="H6">
-        <v>7074</v>
+        <v>7084</v>
       </c>
       <c r="I6">
-        <v>2152</v>
+        <v>2162</v>
       </c>
       <c r="J6">
-        <v>3590</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>1602</v>
+        <v>1612</v>
       </c>
       <c r="C7">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="D7">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="E7">
-        <v>6922</v>
+        <v>6932</v>
       </c>
       <c r="F7">
-        <v>4126</v>
+        <v>4136</v>
       </c>
       <c r="G7">
-        <v>-914</v>
+        <v>-904</v>
       </c>
       <c r="H7">
-        <v>5558</v>
+        <v>5568</v>
       </c>
       <c r="I7">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="J7">
-        <v>-1724</v>
+        <v>-1714</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C8">
-        <v>4392</v>
+        <v>4402</v>
       </c>
       <c r="D8">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="E8">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="F8">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G8">
-        <v>2868</v>
+        <v>2878</v>
       </c>
       <c r="H8">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="I8">
-        <v>4068</v>
+        <v>4078</v>
       </c>
       <c r="J8">
-        <v>-1866</v>
+        <v>-1856</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="C9">
-        <v>3314</v>
+        <v>3324</v>
       </c>
       <c r="D9">
-        <v>3272</v>
+        <v>3282</v>
       </c>
       <c r="E9">
-        <v>4448</v>
+        <v>4458</v>
       </c>
       <c r="F9">
-        <v>-1350</v>
+        <v>-1340</v>
       </c>
       <c r="G9">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="H9">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="I9">
-        <v>2556</v>
+        <v>2566</v>
       </c>
       <c r="J9">
-        <v>-4502</v>
+        <v>-4492</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="C10">
-        <v>1354</v>
+        <v>1364</v>
       </c>
       <c r="D10">
-        <v>2514</v>
+        <v>2524</v>
       </c>
       <c r="E10">
-        <v>3298</v>
+        <v>3308</v>
       </c>
       <c r="F10">
-        <v>2968</v>
+        <v>2978</v>
       </c>
       <c r="G10">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="H10">
-        <v>2250</v>
+        <v>2260</v>
       </c>
       <c r="I10">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="J10">
-        <v>-3624</v>
+        <v>-3614</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>1316</v>
+        <v>1326</v>
       </c>
       <c r="C11">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="D11">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="E11">
-        <v>-108</v>
+        <v>-98</v>
       </c>
       <c r="F11">
-        <v>7904</v>
+        <v>7914</v>
       </c>
       <c r="G11">
-        <v>-2172</v>
+        <v>-2162</v>
       </c>
       <c r="H11">
-        <v>8200</v>
+        <v>8210</v>
       </c>
       <c r="I11">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="J11">
-        <v>-1660</v>
+        <v>-1650</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="C12">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="D12">
-        <v>2714</v>
+        <v>2724</v>
       </c>
       <c r="E12">
-        <v>-464</v>
+        <v>-454</v>
       </c>
       <c r="F12">
-        <v>4940</v>
+        <v>4950</v>
       </c>
       <c r="G12">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="H12">
-        <v>4264</v>
+        <v>4274</v>
       </c>
       <c r="I12">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="J12">
-        <v>-446</v>
+        <v>-436</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="C13">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="D13">
-        <v>1474</v>
+        <v>1484</v>
       </c>
       <c r="E13">
-        <v>-3304</v>
+        <v>-3294</v>
       </c>
       <c r="F13">
-        <v>4740</v>
+        <v>4750</v>
       </c>
       <c r="G13">
-        <v>5028</v>
+        <v>5038</v>
       </c>
       <c r="H13">
-        <v>8130</v>
+        <v>8140</v>
       </c>
       <c r="I13">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J13">
-        <v>-316</v>
+        <v>-306</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="C14">
-        <v>1942</v>
+        <v>1952</v>
       </c>
       <c r="D14">
-        <v>2116</v>
+        <v>2126</v>
       </c>
       <c r="E14">
-        <v>-5782</v>
+        <v>-5772</v>
       </c>
       <c r="F14">
-        <v>3550</v>
+        <v>3560</v>
       </c>
       <c r="G14">
-        <v>6224</v>
+        <v>6234</v>
       </c>
       <c r="H14">
-        <v>10188</v>
+        <v>10198</v>
       </c>
       <c r="I14">
-        <v>-1026</v>
+        <v>-1016</v>
       </c>
       <c r="J14">
-        <v>-580</v>
+        <v>-570</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>2502</v>
+        <v>2512</v>
       </c>
       <c r="C15">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="D15">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="E15">
-        <v>-4834</v>
+        <v>-4824</v>
       </c>
       <c r="F15">
-        <v>6570</v>
+        <v>6580</v>
       </c>
       <c r="G15">
-        <v>7692</v>
+        <v>7702</v>
       </c>
       <c r="H15">
-        <v>8900</v>
+        <v>8910</v>
       </c>
       <c r="I15">
-        <v>1454</v>
+        <v>1464</v>
       </c>
       <c r="J15">
-        <v>1698</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="C16">
-        <v>2940</v>
+        <v>2950</v>
       </c>
       <c r="D16">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="E16">
-        <v>-4434</v>
+        <v>-4424</v>
       </c>
       <c r="F16">
-        <v>7324</v>
+        <v>7334</v>
       </c>
       <c r="G16">
-        <v>7360</v>
+        <v>7370</v>
       </c>
       <c r="H16">
-        <v>8948</v>
+        <v>8958</v>
       </c>
       <c r="I16">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="J16">
-        <v>2464</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="C17">
-        <v>4902</v>
+        <v>4912</v>
       </c>
       <c r="D17">
-        <v>3216</v>
+        <v>3226</v>
       </c>
       <c r="E17">
-        <v>1374</v>
+        <v>1384</v>
       </c>
       <c r="F17">
-        <v>6456</v>
+        <v>6466</v>
       </c>
       <c r="G17">
-        <v>9976</v>
+        <v>9986</v>
       </c>
       <c r="H17">
-        <v>6214</v>
+        <v>6224</v>
       </c>
       <c r="I17">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="J17">
-        <v>1378</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="C18">
-        <v>3036</v>
+        <v>3046</v>
       </c>
       <c r="D18">
-        <v>5034</v>
+        <v>5044</v>
       </c>
       <c r="E18">
-        <v>-438</v>
+        <v>-428</v>
       </c>
       <c r="F18">
-        <v>4944</v>
+        <v>4954</v>
       </c>
       <c r="G18">
-        <v>5088</v>
+        <v>5098</v>
       </c>
       <c r="H18">
-        <v>7798</v>
+        <v>7808</v>
       </c>
       <c r="I18">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="J18">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
